--- a/DOCS/Use Cases/Estimation.xlsx
+++ b/DOCS/Use Cases/Estimation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>UC</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Restore from backup</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,7 +553,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,7 +573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -585,8 +588,11 @@
         <f>E2/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -601,8 +607,11 @@
         <f>E3/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -618,7 +627,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -634,7 +643,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -650,7 +659,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -666,7 +675,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -682,7 +691,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -698,7 +707,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -713,8 +722,11 @@
         <f>E10/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -730,7 +742,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -745,8 +757,11 @@
         <f>E12/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -761,8 +776,11 @@
         <f>E13/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -777,8 +795,11 @@
         <f>E14/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -794,7 +815,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -810,7 +831,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -826,7 +847,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -842,7 +863,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -858,7 +879,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -874,7 +895,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -890,7 +911,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -906,7 +927,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -921,8 +942,11 @@
         <f>E23/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -938,7 +962,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -954,7 +978,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -970,7 +994,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -986,7 +1010,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1002,7 +1026,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1017,8 +1041,11 @@
         <f>E29/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1034,7 +1061,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1050,7 +1077,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>44</v>
       </c>

--- a/DOCS/Use Cases/Estimation.xlsx
+++ b/DOCS/Use Cases/Estimation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>UC</t>
   </si>
@@ -188,6 +188,27 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volunteer profile login </t>
+  </si>
+  <si>
+    <t>manager login</t>
+  </si>
+  <si>
+    <t>volunteer registration</t>
+  </si>
+  <si>
+    <t>volunteer edit profile</t>
+  </si>
+  <si>
+    <t>delete volunteer profile</t>
+  </si>
+  <si>
+    <t>Manager Registeration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Manager </t>
   </si>
 </sst>
 </file>
@@ -543,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1290,12 +1311,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="G11:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="7:8">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8">
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOCS/Use Cases/Estimation.xlsx
+++ b/DOCS/Use Cases/Estimation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>UC</t>
   </si>
@@ -188,27 +188,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volunteer profile login </t>
-  </si>
-  <si>
-    <t>manager login</t>
-  </si>
-  <si>
-    <t>volunteer registration</t>
-  </si>
-  <si>
-    <t>volunteer edit profile</t>
-  </si>
-  <si>
-    <t>delete volunteer profile</t>
-  </si>
-  <si>
-    <t>Manager Registeration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Manager </t>
   </si>
 </sst>
 </file>
@@ -239,12 +218,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -259,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,6 +259,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,7 +567,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -612,8 +605,15 @@
       <c r="G2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>H2*F2</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -631,8 +631,15 @@
       <c r="G3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>H3*F3</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -647,8 +654,15 @@
         <f>E4/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I37" si="1">H4*F4</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -663,8 +677,18 @@
         <f>E5/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -679,8 +703,15 @@
         <f>E6/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -695,8 +726,15 @@
         <f>E7/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -711,8 +749,12 @@
         <f>E8/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -727,8 +769,15 @@
         <f>E9/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -746,8 +795,15 @@
       <c r="G10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -762,8 +818,15 @@
         <f>E11/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -781,8 +844,15 @@
       <c r="G12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -800,8 +870,15 @@
       <c r="G13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -819,8 +896,15 @@
       <c r="G14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -835,8 +919,12 @@
         <f>E15/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -851,8 +939,15 @@
         <f>E16/E40</f>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -867,8 +962,18 @@
         <f>E17/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -883,8 +988,15 @@
         <f>E18/E40</f>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -899,8 +1011,12 @@
         <f>E19/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -915,8 +1031,18 @@
         <f>E20/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -931,8 +1057,15 @@
         <f>E21/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -947,8 +1080,15 @@
         <f>E22/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -966,8 +1106,15 @@
       <c r="G23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -982,8 +1129,15 @@
         <f>E24/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -998,8 +1152,15 @@
         <f>E25/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1014,8 +1175,15 @@
         <f>E26/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1030,8 +1198,15 @@
         <f>E27/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1046,8 +1221,18 @@
         <f>E28/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1065,8 +1250,15 @@
       <c r="G29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1081,8 +1273,15 @@
         <f>E30/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1097,8 +1296,12 @@
         <f>E31/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1113,8 +1316,12 @@
         <f>E32/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1129,8 +1336,12 @@
         <f>E33/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1145,8 +1356,12 @@
         <f>E34/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1161,8 +1376,12 @@
         <f>E35/E40</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1177,8 +1396,15 @@
         <f>E36/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1193,8 +1419,12 @@
         <f>E37/E40</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1218,9 +1448,18 @@
         <f>SUM(F2:F39)</f>
         <v>0.99999999999999933</v>
       </c>
+      <c r="H40">
+        <f>SUM(H2:H36)</f>
+        <v>27</v>
+      </c>
+      <c r="I40">
+        <f>SUM(I2:I39)</f>
+        <v>0.79629629629629584</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1311,73 +1550,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G11:J22"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:J17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="11" spans="7:8">
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="7:8">
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="7:8">
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="7:8">
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="7:8">
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="7:8">
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10">
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10">
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOCS/Use Cases/Estimation.xlsx
+++ b/DOCS/Use Cases/Estimation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>UC</t>
   </si>
@@ -188,6 +188,63 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Cancel button is missing</t>
+  </si>
+  <si>
+    <t>solve problem</t>
+  </si>
+  <si>
+    <t>change create menu icon</t>
+  </si>
+  <si>
+    <t>Canceling should be analyzed</t>
+  </si>
+  <si>
+    <t>Check it and correct style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t>field checking</t>
+  </si>
+  <si>
+    <t>Be sure vlunteer or manager updates it</t>
+  </si>
+  <si>
+    <t>Web method is not ready. Tigran will prepare signature</t>
+  </si>
+  <si>
+    <t>Search functionality should be added</t>
+  </si>
+  <si>
+    <t>Incident box should be better</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>Add prompt</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>ASK Mohsen</t>
+  </si>
+  <si>
+    <t>Suspend request</t>
+  </si>
+  <si>
+    <t>left for now</t>
+  </si>
+  <si>
+    <t>Change title</t>
   </si>
 </sst>
 </file>
@@ -555,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,7 +624,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -612,8 +669,11 @@
         <f>H2*F2</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -638,8 +698,11 @@
         <f>H3*F3</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -661,8 +724,11 @@
         <f t="shared" ref="I4:I37" si="1">H4*F4</f>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -687,8 +753,11 @@
         <f t="shared" si="1"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -710,8 +779,17 @@
         <f t="shared" si="1"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -733,8 +811,17 @@
         <f t="shared" si="1"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -753,8 +840,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -776,8 +872,11 @@
         <f t="shared" si="1"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -802,8 +901,14 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -825,8 +930,11 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -851,8 +959,14 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -877,8 +991,11 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -903,8 +1020,14 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -924,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -946,8 +1069,11 @@
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -972,8 +1098,11 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -995,8 +1124,11 @@
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1015,8 +1147,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1042,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1064,8 +1199,11 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1087,8 +1225,14 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1113,8 +1257,14 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1136,8 +1286,11 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1159,8 +1312,11 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1182,8 +1338,11 @@
         <f t="shared" si="1"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1205,8 +1364,11 @@
         <f t="shared" si="1"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1231,8 +1393,11 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1257,8 +1422,14 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1280,8 +1451,11 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1300,8 +1474,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1320,8 +1497,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1340,8 +1520,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="K33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1360,8 +1543,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1380,8 +1566,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="K35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1403,8 +1592,11 @@
         <f t="shared" si="1"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1423,8 +1615,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="K37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>12</v>
       </c>

--- a/DOCS/Use Cases/Estimation.xlsx
+++ b/DOCS/Use Cases/Estimation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
   <si>
     <t>UC</t>
   </si>
@@ -196,12 +196,6 @@
     <t>Cancel button is missing</t>
   </si>
   <si>
-    <t>solve problem</t>
-  </si>
-  <si>
-    <t>change create menu icon</t>
-  </si>
-  <si>
     <t>Canceling should be analyzed</t>
   </si>
   <si>
@@ -245,6 +239,9 @@
   </si>
   <si>
     <t>Change title</t>
+  </si>
+  <si>
+    <t>Workon style</t>
   </si>
 </sst>
 </file>
@@ -307,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -318,6 +315,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,19 +613,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,8 +645,12 @@
       <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -673,7 +679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -702,7 +708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -728,7 +734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -757,7 +763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -782,14 +788,14 @@
       <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -814,14 +820,8 @@
       <c r="K7" t="s">
         <v>52</v>
       </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -843,14 +843,11 @@
       <c r="K8" t="s">
         <v>52</v>
       </c>
-      <c r="L8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -876,7 +873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -904,11 +901,11 @@
       <c r="K10" t="s">
         <v>52</v>
       </c>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -934,7 +931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -960,13 +957,13 @@
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -995,7 +992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1023,11 +1020,11 @@
       <c r="K14" t="s">
         <v>52</v>
       </c>
-      <c r="L14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1047,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1069,8 +1066,8 @@
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="L16" t="s">
-        <v>61</v>
+      <c r="L16" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1098,8 +1095,8 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
-        <v>62</v>
+      <c r="L17" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1124,8 +1121,8 @@
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="L18" t="s">
-        <v>61</v>
+      <c r="L18" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1148,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1200,7 +1197,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1228,8 +1225,8 @@
       <c r="K22" t="s">
         <v>52</v>
       </c>
-      <c r="L22" t="s">
-        <v>65</v>
+      <c r="L22" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1260,8 +1257,8 @@
       <c r="K23" t="s">
         <v>52</v>
       </c>
-      <c r="L23" t="s">
-        <v>66</v>
+      <c r="L23" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1313,7 +1310,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1338,8 +1335,8 @@
         <f t="shared" si="1"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="L26" t="s">
-        <v>67</v>
+      <c r="L26" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1394,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1425,8 +1422,8 @@
       <c r="K29" t="s">
         <v>52</v>
       </c>
-      <c r="L29" t="s">
-        <v>57</v>
+      <c r="L29" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1475,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1498,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1521,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1544,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1567,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1616,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1654,7 +1651,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1745,12 +1742,344 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOCS/Use Cases/Estimation.xlsx
+++ b/DOCS/Use Cases/Estimation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
   <si>
     <t>UC</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Workon style</t>
+  </si>
+  <si>
+    <t>Mohsen: Yes it's done in manreg.aspx</t>
+  </si>
+  <si>
+    <t>Mohsen: will be done</t>
   </si>
 </sst>
 </file>
@@ -615,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1070,7 +1076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1173,8 +1179,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1261,7 +1270,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1338,8 +1347,11 @@
       <c r="L26" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1394,7 +1406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>44</v>
       </c>

--- a/DOCS/Use Cases/Estimation.xlsx
+++ b/DOCS/Use Cases/Estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15315" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="15315" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UC" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>UC</t>
   </si>
@@ -193,9 +193,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Cancel button is missing</t>
-  </si>
-  <si>
     <t>Canceling should be analyzed</t>
   </si>
   <si>
@@ -211,15 +208,9 @@
     <t>Be sure vlunteer or manager updates it</t>
   </si>
   <si>
-    <t>Web method is not ready. Tigran will prepare signature</t>
-  </si>
-  <si>
     <t>Search functionality should be added</t>
   </si>
   <si>
-    <t>Incident box should be better</t>
-  </si>
-  <si>
     <t>Canceled</t>
   </si>
   <si>
@@ -238,23 +229,47 @@
     <t>left for now</t>
   </si>
   <si>
-    <t>Change title</t>
-  </si>
-  <si>
-    <t>Workon style</t>
-  </si>
-  <si>
-    <t>Mohsen: Yes it's done in manreg.aspx</t>
-  </si>
-  <si>
-    <t>Mohsen: will be done</t>
+    <t>- web service methods: few service methods are remaining. Tigran will send what does he need.</t>
+  </si>
+  <si>
+    <t>- Automatic requesting procedure should be updated. It doesnt update incident need list. It only updates request need list. I will do it.</t>
+  </si>
+  <si>
+    <t>- Logging feature is added but only few methods are using it. We should add logging statements in codes.</t>
+  </si>
+  <si>
+    <t>- Security checking (authentication and authorization) must be added to page base or master page</t>
+  </si>
+  <si>
+    <t>- In send alert page, manager should search the volunteers to send that alert.</t>
+  </si>
+  <si>
+    <t>- list of alerts and view new incident reports pages must be done.</t>
+  </si>
+  <si>
+    <t>- I have changed sitemap structure. It was misleading. We can talk it later. It is now a bulleted list that is used like a menu. All pages must fill that menu individually. I added that code to pages that i implemented. Other pages remain.</t>
+  </si>
+  <si>
+    <t>- All of the buttons in the web site should have same style.</t>
+  </si>
+  <si>
+    <t>- We should have a common style for links, form values, testboxes and etc. Currently different pages have different style.</t>
+  </si>
+  <si>
+    <t>- The default page of the site should contain a system description and also a login form at one side. </t>
+  </si>
+  <si>
+    <t>- Manager profile approval??? we dont know it. Is it finished? Who and how approves ?</t>
+  </si>
+  <si>
+    <t>- There are also some issues related to finished pages. Check the Estimation.xlsx file. The K column contains status. and right side of K contains issues.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +292,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF53FA3C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -310,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,12 +352,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF53FA3C"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -621,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -794,12 +832,6 @@
       <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -850,7 +882,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -908,7 +940,7 @@
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -963,10 +995,10 @@
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1027,7 +1059,7 @@
         <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1072,11 +1104,8 @@
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1102,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1127,11 +1156,8 @@
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1151,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1179,11 +1205,8 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1206,10 +1229,10 @@
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1235,10 +1258,10 @@
         <v>52</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1267,10 +1290,10 @@
         <v>52</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1296,7 +1319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1319,10 +1342,10 @@
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1345,13 +1368,10 @@
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1377,7 +1397,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1403,10 +1423,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1435,10 +1455,10 @@
         <v>52</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1464,7 +1484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1484,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1507,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1530,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1553,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1576,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1625,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1754,339 +1774,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="136.7109375" customWidth="1"/>
     <col min="3" max="3" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+    <row r="6" spans="1:1" ht="18" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="27.75" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18" customHeight="1"/>
+    <row r="14" spans="1:1" ht="18" customHeight="1"/>
+    <row r="15" spans="1:1" ht="18" customHeight="1"/>
+    <row r="16" spans="1:1" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1"/>
+    <row r="18" ht="18" customHeight="1"/>
+    <row r="19" ht="18" customHeight="1"/>
+    <row r="20" ht="18" customHeight="1"/>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
+    <row r="25" ht="18" customHeight="1"/>
+    <row r="26" ht="18" customHeight="1"/>
+    <row r="27" ht="18" customHeight="1"/>
+    <row r="28" ht="18" customHeight="1"/>
+    <row r="29" ht="18" customHeight="1"/>
+    <row r="30" ht="18" customHeight="1"/>
+    <row r="31" ht="18" customHeight="1"/>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>12</v>
       </c>
